--- a/CellDis/paper_metrics.xlsx
+++ b/CellDis/paper_metrics.xlsx
@@ -415,10 +415,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A2">
+        <v>2022</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -466,10 +464,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A3">
+        <v>2022</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -517,10 +513,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A4">
+        <v>2022</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -568,10 +562,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A5">
+        <v>2022</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -619,10 +611,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A6">
+        <v>2022</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -670,10 +660,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A7">
+        <v>2022</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -721,10 +709,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A8">
+        <v>2022</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -772,10 +758,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A9">
+        <v>2022</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -823,10 +807,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A10">
+        <v>2022</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -874,10 +856,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A11">
+        <v>2022</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -925,10 +905,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A12">
+        <v>2022</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -976,10 +954,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A13">
+        <v>2022</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1027,10 +1003,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A14">
+        <v>2022</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1078,10 +1052,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A15">
+        <v>2022</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1129,10 +1101,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A16">
+        <v>2022</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1180,10 +1150,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A17">
+        <v>2022</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1231,10 +1199,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A18">
+        <v>2022</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1282,10 +1248,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A19">
+        <v>2022</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1333,10 +1297,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A20">
+        <v>2022</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1384,10 +1346,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A21">
+        <v>2022</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1435,10 +1395,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A22">
+        <v>2022</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1486,10 +1444,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A23">
+        <v>2022</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1537,10 +1493,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A24">
+        <v>2022</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1588,10 +1542,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A25">
+        <v>2022</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1639,10 +1591,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A26">
+        <v>2022</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1690,10 +1640,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A27">
+        <v>2022</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1741,10 +1689,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A28">
+        <v>2022</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1792,10 +1738,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A29">
+        <v>2022</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1843,10 +1787,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A30">
+        <v>2022</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1894,10 +1836,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A31">
+        <v>2022</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1945,10 +1885,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A32">
+        <v>2022</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1996,10 +1934,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A33">
+        <v>2022</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2047,10 +1983,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A34">
+        <v>2022</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2098,10 +2032,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A35">
+        <v>2022</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2149,10 +2081,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A36">
+        <v>2022</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2200,10 +2130,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A37">
+        <v>2022</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2251,10 +2179,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A38">
+        <v>2022</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2302,10 +2228,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A39">
+        <v>2022</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2353,10 +2277,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A40">
+        <v>2022</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2404,10 +2326,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A41">
+        <v>2022</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2455,10 +2375,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A42">
+        <v>2022</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2506,10 +2424,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A43">
+        <v>2022</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2557,10 +2473,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A44">
+        <v>2022</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2608,10 +2522,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A45">
+        <v>2022</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2659,10 +2571,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A46">
+        <v>2022</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2710,10 +2620,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A47">
+        <v>2022</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2761,10 +2669,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A48">
+        <v>2022</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2812,10 +2718,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A49">
+        <v>2022</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2863,10 +2767,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A50">
+        <v>2022</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2914,10 +2816,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A51">
+        <v>2022</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2965,10 +2865,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A52">
+        <v>2022</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3016,10 +2914,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A53">
+        <v>2022</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3067,10 +2963,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A54">
+        <v>2022</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3118,10 +3012,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A55">
+        <v>2022</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3169,10 +3061,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A56">
+        <v>2022</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3220,10 +3110,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A57">
+        <v>2022</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3271,10 +3159,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A58">
+        <v>2022</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3322,10 +3208,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A59">
+        <v>2022</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3373,10 +3257,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A60">
+        <v>2022</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3424,10 +3306,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A61">
+        <v>2022</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3475,10 +3355,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A62">
+        <v>2022</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3526,10 +3404,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A63">
+        <v>2022</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3577,10 +3453,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A64">
+        <v>2022</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3628,10 +3502,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A65">
+        <v>2022</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3679,10 +3551,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A66">
+        <v>2022</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3730,10 +3600,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A67">
+        <v>2022</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3781,10 +3649,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A68">
+        <v>2022</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3832,10 +3698,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A69">
+        <v>2022</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3883,10 +3747,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A70">
+        <v>2022</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3934,10 +3796,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A71">
+        <v>2021</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3985,10 +3845,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A72">
+        <v>2021</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4036,10 +3894,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A73">
+        <v>2021</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4087,10 +3943,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A74">
+        <v>2021</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4138,10 +3992,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A75">
+        <v>2021</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4189,10 +4041,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A76">
+        <v>2021</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4240,10 +4090,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A77">
+        <v>2021</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4291,10 +4139,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A78">
+        <v>2021</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4342,10 +4188,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A79">
+        <v>2021</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4393,10 +4237,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A80">
+        <v>2021</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4444,10 +4286,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A81">
+        <v>2021</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -4495,10 +4335,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A82">
+        <v>2021</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -4546,10 +4384,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A83">
+        <v>2021</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -4597,10 +4433,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A84">
+        <v>2021</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -4648,10 +4482,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A85">
+        <v>2021</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -4699,10 +4531,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A86">
+        <v>2021</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -4750,10 +4580,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A87">
+        <v>2021</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -4801,10 +4629,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A88">
+        <v>2021</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4852,10 +4678,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A89">
+        <v>2021</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -4903,10 +4727,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A90">
+        <v>2021</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -4954,10 +4776,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A91">
+        <v>2021</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -5005,10 +4825,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A92">
+        <v>2021</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -5056,10 +4874,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A93">
+        <v>2021</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -5107,10 +4923,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A94">
+        <v>2021</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -5158,10 +4972,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A95">
+        <v>2021</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -5209,10 +5021,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A96">
+        <v>2021</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -5260,10 +5070,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A97">
+        <v>2021</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -5311,10 +5119,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A98">
+        <v>2021</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -5362,10 +5168,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A99">
+        <v>2021</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -5413,10 +5217,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A100">
+        <v>2021</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -5464,10 +5266,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A101">
+        <v>2021</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -5515,10 +5315,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A102">
+        <v>2021</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -5566,10 +5364,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A103">
+        <v>2021</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -5617,10 +5413,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A104">
+        <v>2021</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -5668,10 +5462,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A105">
+        <v>2021</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -5719,10 +5511,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A106">
+        <v>2021</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -5770,10 +5560,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A107">
+        <v>2021</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -5821,10 +5609,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A108">
+        <v>2021</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -5872,10 +5658,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A109">
+        <v>2021</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -5923,10 +5707,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A110">
+        <v>2021</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -5974,10 +5756,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A111">
+        <v>2021</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -6025,10 +5805,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A112">
+        <v>2021</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -6076,10 +5854,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A113">
+        <v>2021</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -6127,10 +5903,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A114">
+        <v>2021</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -6178,10 +5952,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A115">
+        <v>2021</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -6229,10 +6001,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A116">
+        <v>2021</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -6280,10 +6050,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A117">
+        <v>2021</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -6331,10 +6099,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A118">
+        <v>2021</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -6382,10 +6148,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A119">
+        <v>2021</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -6433,10 +6197,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A120">
+        <v>2021</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -6484,10 +6246,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A121">
+        <v>2021</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -6535,10 +6295,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A122">
+        <v>2021</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -6586,10 +6344,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A123">
+        <v>2021</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -6637,10 +6393,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A124">
+        <v>2021</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -6688,10 +6442,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A125">
+        <v>2021</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -6739,10 +6491,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A126">
+        <v>2021</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -6790,10 +6540,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A127">
+        <v>2021</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -6841,10 +6589,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A128">
+        <v>2021</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -6892,10 +6638,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A129">
+        <v>2021</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -6943,10 +6687,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A130">
+        <v>2021</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -6994,10 +6736,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A131">
+        <v>2021</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -7045,10 +6785,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A132">
+        <v>2021</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -7096,10 +6834,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A133">
+        <v>2021</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -7147,10 +6883,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A134">
+        <v>2021</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -7198,10 +6932,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A135">
+        <v>2021</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -7249,10 +6981,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A136">
+        <v>2021</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -7300,10 +7030,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A137">
+        <v>2021</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -7351,10 +7079,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A138">
+        <v>2021</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -7402,10 +7128,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A139">
+        <v>2021</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -7453,10 +7177,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A140">
+        <v>2021</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -7504,10 +7226,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A141">
+        <v>2021</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -7555,10 +7275,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A142">
+        <v>2021</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -7606,10 +7324,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A143">
+        <v>2020</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -7657,10 +7373,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A144">
+        <v>2020</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -7708,10 +7422,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A145">
+        <v>2020</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -7759,10 +7471,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A146">
+        <v>2020</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -7810,10 +7520,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A147">
+        <v>2020</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -7861,10 +7569,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A148">
+        <v>2020</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -7912,10 +7618,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A149">
+        <v>2020</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -7963,10 +7667,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A150">
+        <v>2020</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -8014,10 +7716,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A151">
+        <v>2020</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -8065,10 +7765,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A152">
+        <v>2020</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -8116,10 +7814,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A153">
+        <v>2020</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -8167,10 +7863,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A154">
+        <v>2020</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -8218,10 +7912,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A155">
+        <v>2020</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -8269,10 +7961,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A156">
+        <v>2020</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -8320,10 +8010,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A157">
+        <v>2020</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -8371,10 +8059,8 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A158">
+        <v>2020</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -8422,10 +8108,8 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A159">
+        <v>2020</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -8473,10 +8157,8 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A160">
+        <v>2020</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -8524,10 +8206,8 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A161">
+        <v>2020</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -8575,10 +8255,8 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A162">
+        <v>2020</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -8626,10 +8304,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A163">
+        <v>2020</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -8677,10 +8353,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A164">
+        <v>2020</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -8728,10 +8402,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A165">
+        <v>2020</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -8779,10 +8451,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A166">
+        <v>2020</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -8830,10 +8500,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A167">
+        <v>2020</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -8881,10 +8549,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A168">
+        <v>2020</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -8932,10 +8598,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A169">
+        <v>2020</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -8983,10 +8647,8 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A170">
+        <v>2020</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -9034,10 +8696,8 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A171">
+        <v>2020</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -9085,10 +8745,8 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A172">
+        <v>2020</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -9136,10 +8794,8 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A173">
+        <v>2020</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -9187,10 +8843,8 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A174">
+        <v>2020</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -9238,10 +8892,8 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A175">
+        <v>2020</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -9289,10 +8941,8 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A176">
+        <v>2020</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -9340,10 +8990,8 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A177">
+        <v>2020</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -9391,10 +9039,8 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A178">
+        <v>2020</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -9442,10 +9088,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A179">
+        <v>2020</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -9493,10 +9137,8 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A180">
+        <v>2020</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -9544,10 +9186,8 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A181">
+        <v>2020</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -9595,10 +9235,8 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A182">
+        <v>2020</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -9646,10 +9284,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A183">
+        <v>2020</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -9697,10 +9333,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A184">
+        <v>2020</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -9748,10 +9382,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A185">
+        <v>2020</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -9799,10 +9431,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A186">
+        <v>2020</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -9850,10 +9480,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A187">
+        <v>2020</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -9901,10 +9529,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A188">
+        <v>2020</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -9952,10 +9578,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A189">
+        <v>2020</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -10003,10 +9627,8 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A190">
+        <v>2020</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -10054,10 +9676,8 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A191">
+        <v>2020</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -10105,10 +9725,8 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A192">
+        <v>2020</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -10156,10 +9774,8 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A193">
+        <v>2020</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -10207,10 +9823,8 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A194">
+        <v>2020</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -10258,10 +9872,8 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A195">
+        <v>2020</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -10309,10 +9921,8 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A196">
+        <v>2020</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -10360,10 +9970,8 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A197">
+        <v>2019</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -10411,10 +10019,8 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A198">
+        <v>2019</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -10462,10 +10068,8 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A199">
+        <v>2019</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -10513,10 +10117,8 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A200">
+        <v>2019</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -10564,10 +10166,8 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A201">
+        <v>2019</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -10615,10 +10215,8 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A202">
+        <v>2019</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -10666,10 +10264,8 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A203">
+        <v>2019</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -10717,10 +10313,8 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A204">
+        <v>2019</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -10768,10 +10362,8 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A205">
+        <v>2019</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -10819,10 +10411,8 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A206">
+        <v>2019</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -10870,10 +10460,8 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A207">
+        <v>2019</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -10921,10 +10509,8 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A208">
+        <v>2019</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -10972,10 +10558,8 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A209">
+        <v>2019</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -11023,10 +10607,8 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A210">
+        <v>2019</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -11074,10 +10656,8 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A211">
+        <v>2019</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -11125,10 +10705,8 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A212">
+        <v>2019</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -11176,10 +10754,8 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A213">
+        <v>2019</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -11227,10 +10803,8 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A214">
+        <v>2019</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -11278,10 +10852,8 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A215">
+        <v>2019</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -11329,10 +10901,8 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A216">
+        <v>2019</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -11380,10 +10950,8 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A217">
+        <v>2019</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -11431,10 +10999,8 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A218">
+        <v>2019</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -11482,10 +11048,8 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A219">
+        <v>2019</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -11533,10 +11097,8 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A220">
+        <v>2019</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -11584,10 +11146,8 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A221">
+        <v>2019</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -11635,10 +11195,8 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A222">
+        <v>2019</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -11686,10 +11244,8 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A223">
+        <v>2019</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -11737,10 +11293,8 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A224">
+        <v>2019</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -11788,10 +11342,8 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A225">
+        <v>2019</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -11839,10 +11391,8 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A226">
+        <v>2019</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -11890,10 +11440,8 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A227">
+        <v>2019</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -11941,10 +11489,8 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A228">
+        <v>2019</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -11992,10 +11538,8 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A229">
+        <v>2018</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -12043,10 +11587,8 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A230">
+        <v>2018</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -12094,10 +11636,8 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A231">
+        <v>2018</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -12145,10 +11685,8 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A232">
+        <v>2018</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -12196,10 +11734,8 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A233">
+        <v>2018</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -12247,10 +11783,8 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A234">
+        <v>2018</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -12298,10 +11832,8 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A235">
+        <v>2018</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -12349,10 +11881,8 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A236">
+        <v>2018</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -12400,10 +11930,8 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A237">
+        <v>2018</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -12451,10 +11979,8 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A238">
+        <v>2018</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -12502,10 +12028,8 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A239">
+        <v>2018</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -12553,10 +12077,8 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A240">
+        <v>2018</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -12604,10 +12126,8 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A241">
+        <v>2018</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -12655,10 +12175,8 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A242">
+        <v>2018</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -12706,10 +12224,8 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A243">
+        <v>2018</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -12757,10 +12273,8 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A244">
+        <v>2018</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -12808,10 +12322,8 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A245">
+        <v>2018</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -12859,10 +12371,8 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A246">
+        <v>2018</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -12910,10 +12420,8 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A247">
+        <v>2018</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -12961,10 +12469,8 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A248">
+        <v>2018</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -13012,10 +12518,8 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A249">
+        <v>2018</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -13063,10 +12567,8 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A250">
+        <v>2018</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -13114,10 +12616,8 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A251">
+        <v>2018</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -13165,10 +12665,8 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A252">
+        <v>2018</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -13216,10 +12714,8 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A253">
+        <v>2018</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -13267,10 +12763,8 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A254">
+        <v>2018</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -13318,10 +12812,8 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A255">
+        <v>2018</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -13369,10 +12861,8 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A256">
+        <v>2018</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -13420,10 +12910,8 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A257">
+        <v>2018</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -13471,10 +12959,8 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A258">
+        <v>2018</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -13522,10 +13008,8 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A259">
+        <v>2018</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -13573,10 +13057,8 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A260">
+        <v>2018</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -13624,10 +13106,8 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A261">
+        <v>2018</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -13675,10 +13155,8 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A262">
+        <v>2018</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -13726,10 +13204,8 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A263">
+        <v>2018</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -13777,10 +13253,8 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A264">
+        <v>2018</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -13828,10 +13302,8 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A265">
+        <v>2018</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -13879,10 +13351,8 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A266">
+        <v>2018</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -13930,10 +13400,8 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A267">
+        <v>2018</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -13981,10 +13449,8 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A268">
+        <v>2018</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -14032,10 +13498,8 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A269">
+        <v>2018</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -14083,10 +13547,8 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A270">
+        <v>2018</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -14134,10 +13596,8 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A271">
+        <v>2018</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -14185,10 +13645,8 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A272">
+        <v>2018</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -14236,10 +13694,8 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A273">
+        <v>2018</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -14287,10 +13743,8 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A274">
+        <v>2018</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -14338,10 +13792,8 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A275">
+        <v>2018</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -14389,10 +13841,8 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A276">
+        <v>2018</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -14440,10 +13890,8 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A277">
+        <v>2018</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -14491,10 +13939,8 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A278">
+        <v>2018</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -14542,10 +13988,8 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A279">
+        <v>2018</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -14593,10 +14037,8 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A280">
+        <v>2018</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -14639,10 +14081,8 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A281">
+        <v>2018</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -14690,10 +14130,8 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A282">
+        <v>2018</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -14741,10 +14179,8 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A283">
+        <v>2017</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -14792,10 +14228,8 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A284">
+        <v>2017</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -14843,10 +14277,8 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A285">
+        <v>2017</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -14894,10 +14326,8 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A286">
+        <v>2017</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -14945,10 +14375,8 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A287">
+        <v>2017</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -14996,10 +14424,8 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A288">
+        <v>2017</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -15047,10 +14473,8 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A289">
+        <v>2017</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -15098,10 +14522,8 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A290">
+        <v>2017</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -15149,10 +14571,8 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A291">
+        <v>2017</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -15200,10 +14620,8 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A292">
+        <v>2017</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -15251,10 +14669,8 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A293">
+        <v>2017</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -15302,10 +14718,8 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A294">
+        <v>2017</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -15353,10 +14767,8 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A295">
+        <v>2017</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -15404,10 +14816,8 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A296">
+        <v>2017</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -15455,10 +14865,8 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A297">
+        <v>2017</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -15506,10 +14914,8 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A298">
+        <v>2017</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -15557,10 +14963,8 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A299">
+        <v>2017</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -15608,10 +15012,8 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A300">
+        <v>2017</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -15659,10 +15061,8 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A301">
+        <v>2017</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -15710,10 +15110,8 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A302">
+        <v>2017</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -15761,10 +15159,8 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A303">
+        <v>2017</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -15812,10 +15208,8 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A304">
+        <v>2017</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -15863,10 +15257,8 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A305">
+        <v>2017</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -15914,10 +15306,8 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A306">
+        <v>2017</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -15965,10 +15355,8 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A307">
+        <v>2017</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -16016,10 +15404,8 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A308">
+        <v>2017</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -16067,10 +15453,8 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A309">
+        <v>2017</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -16118,10 +15502,8 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A310">
+        <v>2017</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -16169,10 +15551,8 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A311">
+        <v>2017</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -16220,10 +15600,8 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A312">
+        <v>2017</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -16271,10 +15649,8 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A313">
+        <v>2017</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -16322,10 +15698,8 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A314">
+        <v>2017</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -16373,10 +15747,8 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A315">
+        <v>2017</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -16424,10 +15796,8 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A316">
+        <v>2017</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -16475,10 +15845,8 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A317">
+        <v>2017</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -16526,10 +15894,8 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A318">
+        <v>2017</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -16577,10 +15943,8 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A319">
+        <v>2017</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -16628,10 +15992,8 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A320">
+        <v>2017</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -16679,10 +16041,8 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A321">
+        <v>2017</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -16730,10 +16090,8 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A322">
+        <v>2017</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -16781,10 +16139,8 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A323">
+        <v>2017</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -16832,10 +16188,8 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A324">
+        <v>2017</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -16883,10 +16237,8 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A325">
+        <v>2017</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -16934,10 +16286,8 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A326">
+        <v>2017</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -16985,10 +16335,8 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A327">
+        <v>2017</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -17036,10 +16384,8 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A328">
+        <v>2017</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -17087,10 +16433,8 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A329">
+        <v>2017</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -17138,10 +16482,8 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A330">
+        <v>2017</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -17189,10 +16531,8 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A331">
+        <v>2017</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -17240,10 +16580,8 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A332">
+        <v>2017</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -17291,10 +16629,8 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A333">
+        <v>2017</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -17342,10 +16678,8 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A334">
+        <v>2017</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -17393,10 +16727,8 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A335">
+        <v>2016</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -17444,10 +16776,8 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A336">
+        <v>2016</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -17495,10 +16825,8 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A337">
+        <v>2016</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -17546,10 +16874,8 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A338">
+        <v>2016</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -17597,10 +16923,8 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A339">
+        <v>2016</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -17648,10 +16972,8 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A340">
+        <v>2016</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -17699,10 +17021,8 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A341">
+        <v>2016</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -17750,10 +17070,8 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A342">
+        <v>2016</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -17801,10 +17119,8 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A343">
+        <v>2016</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -17852,10 +17168,8 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A344">
+        <v>2016</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -17903,10 +17217,8 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A345">
+        <v>2016</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -17944,7 +17256,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t xml:space="preserve">Canonical Wnt signalling regulates nuclear export of Setdb1 during skeletal muscle terminal differentiation </t>
+          <t>Canonical Wnt signalling regulates nuclear export of Setdb1 during skeletal muscle terminal differentiation</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -17954,10 +17266,8 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A346">
+        <v>2016</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -18005,10 +17315,8 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A347">
+        <v>2016</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -18056,10 +17364,8 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A348">
+        <v>2016</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -18107,10 +17413,8 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A349">
+        <v>2016</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -18158,10 +17462,8 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A350">
+        <v>2016</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -18209,10 +17511,8 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A351">
+        <v>2016</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -18260,10 +17560,8 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A352">
+        <v>2016</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -18311,10 +17609,8 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A353">
+        <v>2016</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -18362,10 +17658,8 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A354">
+        <v>2016</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -18413,10 +17707,8 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A355">
+        <v>2016</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -18464,10 +17756,8 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A356">
+        <v>2016</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -18515,10 +17805,8 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A357">
+        <v>2016</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -18561,10 +17849,8 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A358">
+        <v>2016</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -18612,10 +17898,8 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A359">
+        <v>2016</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -18663,10 +17947,8 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A360">
+        <v>2016</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -18714,10 +17996,8 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A361">
+        <v>2016</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -18765,10 +18045,8 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A362">
+        <v>2016</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -18816,10 +18094,8 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A363">
+        <v>2016</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -18867,10 +18143,8 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A364">
+        <v>2016</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -18918,10 +18192,8 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A365">
+        <v>2016</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -18969,10 +18241,8 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A366">
+        <v>2016</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -19020,10 +18290,8 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A367">
+        <v>2016</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -19071,10 +18339,8 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A368">
+        <v>2016</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -19122,10 +18388,8 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A369">
+        <v>2016</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -19173,10 +18437,8 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A370">
+        <v>2016</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -19224,10 +18486,8 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A371">
+        <v>2016</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -19275,10 +18535,8 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A372">
+        <v>2016</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -19326,10 +18584,8 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A373">
+        <v>2016</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -19372,10 +18628,8 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A374">
+        <v>2016</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -19423,10 +18677,8 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A375">
+        <v>2016</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -19474,10 +18726,8 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A376">
+        <v>2016</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -19525,10 +18775,8 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A377">
+        <v>2016</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -19576,10 +18824,8 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A378">
+        <v>2016</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -19627,10 +18873,8 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A379">
+        <v>2016</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -19678,10 +18922,8 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A380">
+        <v>2016</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -19729,10 +18971,8 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A381">
+        <v>2016</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -19780,10 +19020,8 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A382">
+        <v>2016</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -19831,10 +19069,8 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A383">
+        <v>2016</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -19882,10 +19118,8 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A384">
+        <v>2016</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -19933,10 +19167,8 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A385">
+        <v>2016</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -19984,10 +19216,8 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A386">
+        <v>2016</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -20035,10 +19265,8 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A387">
+        <v>2015</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -20086,10 +19314,8 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A388">
+        <v>2015</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -20137,10 +19363,8 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A389">
+        <v>2015</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -20188,10 +19412,8 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A390">
+        <v>2015</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -20239,10 +19461,8 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A391">
+        <v>2015</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -20290,10 +19510,8 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A392">
+        <v>2015</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -20341,10 +19559,8 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A393">
+        <v>2015</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -20392,10 +19608,8 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A394">
+        <v>2015</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -20443,10 +19657,8 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A395">
+        <v>2015</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -20494,10 +19706,8 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A396">
+        <v>2015</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -20545,10 +19755,8 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A397">
+        <v>2015</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -20596,10 +19804,8 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A398">
+        <v>2015</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -20647,10 +19853,8 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A399">
+        <v>2015</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -20693,10 +19897,8 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A400">
+        <v>2015</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -20744,10 +19946,8 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A401">
+        <v>2015</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -20795,10 +19995,8 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A402">
+        <v>2015</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -20841,10 +20039,8 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A403">
+        <v>2015</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -20887,10 +20083,8 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A404">
+        <v>2015</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -20933,10 +20127,8 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A405">
+        <v>2015</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -20979,10 +20171,8 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A406">
+        <v>2015</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -21025,10 +20215,8 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A407">
+        <v>2015</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -21071,10 +20259,8 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A408">
+        <v>2015</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -21117,10 +20303,8 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A409">
+        <v>2015</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -21163,10 +20347,8 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A410">
+        <v>2015</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -21209,10 +20391,8 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A411">
+        <v>2015</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -21255,10 +20435,8 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A412">
+        <v>2015</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -21301,10 +20479,8 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A413">
+        <v>2015</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -21347,10 +20523,8 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A414">
+        <v>2015</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -21393,10 +20567,8 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A415">
+        <v>2015</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -21439,10 +20611,8 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A416">
+        <v>2015</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -21485,10 +20655,8 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A417">
+        <v>2015</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -21531,10 +20699,8 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A418">
+        <v>2015</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -21577,10 +20743,8 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A419">
+        <v>2015</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -21623,10 +20787,8 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A420">
+        <v>2015</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -21669,10 +20831,8 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A421">
+        <v>2015</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -21715,10 +20875,8 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A422">
+        <v>2015</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -21761,10 +20919,8 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A423">
+        <v>2015</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -21807,10 +20963,8 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A424">
+        <v>2015</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -21853,10 +21007,8 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A425">
+        <v>2021</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -21904,10 +21056,8 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A426">
+        <v>2021</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -21955,10 +21105,8 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A427">
+        <v>2021</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -22006,10 +21154,8 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A428">
+        <v>2020</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -22057,10 +21203,8 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A429">
+        <v>2020</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -22108,10 +21252,8 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A430">
+        <v>2020</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -22159,10 +21301,8 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A431">
+        <v>2020</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -22210,10 +21350,8 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A432">
+        <v>2020</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -22261,10 +21399,8 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A433">
+        <v>2020</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -22312,10 +21448,8 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A434">
+        <v>2016</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -22363,10 +21497,8 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A435">
+        <v>2022</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -22414,10 +21546,8 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A436">
+        <v>2022</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
@@ -22465,10 +21595,8 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A437">
+        <v>2022</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -22516,10 +21644,8 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A438">
+        <v>2022</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -22567,10 +21693,8 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A439">
+        <v>2022</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -22618,10 +21742,8 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A440">
+        <v>2022</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -22669,10 +21791,8 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A441">
+        <v>2022</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -22720,10 +21840,8 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A442">
+        <v>2022</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -22766,10 +21884,8 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A443">
+        <v>2022</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -22817,10 +21933,8 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A444">
+        <v>2022</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -22868,10 +21982,8 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A445">
+        <v>2022</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -22919,10 +22031,8 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A446">
+        <v>2022</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -22970,10 +22080,8 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A447">
+        <v>2022</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -23021,10 +22129,8 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A448">
+        <v>2022</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -23072,10 +22178,8 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A449">
+        <v>2022</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -23123,10 +22227,8 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A450">
+        <v>2022</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -23174,10 +22276,8 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A451">
+        <v>2022</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -23225,10 +22325,8 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A452">
+        <v>2022</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -23276,10 +22374,8 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A453">
+        <v>2022</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -23327,10 +22423,8 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A454">
+        <v>2022</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -23378,10 +22472,8 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A455">
+        <v>2022</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -23429,10 +22521,8 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A456">
+        <v>2022</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -23480,10 +22570,8 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A457">
+        <v>2022</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -23531,10 +22619,8 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A458">
+        <v>2022</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -23582,10 +22668,8 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A459">
+        <v>2022</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -23633,10 +22717,8 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A460">
+        <v>2022</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -23684,10 +22766,8 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A461">
+        <v>2022</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -23735,10 +22815,8 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A462">
+        <v>2021</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -23786,10 +22864,8 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A463">
+        <v>2021</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -23837,10 +22913,8 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A464">
+        <v>2021</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -23888,10 +22962,8 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A465">
+        <v>2021</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -23939,10 +23011,8 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A466">
+        <v>2021</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -23990,10 +23060,8 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A467">
+        <v>2021</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -24041,10 +23109,8 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A468">
+        <v>2021</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -24092,10 +23158,8 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A469">
+        <v>2021</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -24143,10 +23207,8 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A470">
+        <v>2021</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -24194,10 +23256,8 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A471">
+        <v>2021</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -24245,10 +23305,8 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A472">
+        <v>2021</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -24296,10 +23354,8 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A473">
+        <v>2021</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -24347,10 +23403,8 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A474">
+        <v>2021</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -24398,10 +23452,8 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A475">
+        <v>2021</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -24449,10 +23501,8 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A476">
+        <v>2021</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -24500,10 +23550,8 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A477">
+        <v>2021</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -24551,10 +23599,8 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A478">
+        <v>2021</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -24602,10 +23648,8 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A479">
+        <v>2021</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -24653,10 +23697,8 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A480">
+        <v>2021</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -24704,10 +23746,8 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A481">
+        <v>2021</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -24755,10 +23795,8 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A482">
+        <v>2021</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -24806,10 +23844,8 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A483">
+        <v>2021</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -24857,10 +23893,8 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A484">
+        <v>2021</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -24908,10 +23942,8 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A485">
+        <v>2021</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -24959,10 +23991,8 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A486">
+        <v>2021</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -25010,10 +24040,8 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A487">
+        <v>2021</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -25061,10 +24089,8 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A488">
+        <v>2021</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -25112,10 +24138,8 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A489">
+        <v>2021</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -25163,10 +24187,8 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A490">
+        <v>2021</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -25214,10 +24236,8 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A491">
+        <v>2021</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -25265,10 +24285,8 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A492">
+        <v>2021</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -25316,10 +24334,8 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A493">
+        <v>2021</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -25367,10 +24383,8 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A494">
+        <v>2021</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -25418,10 +24432,8 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A495">
+        <v>2021</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -25469,10 +24481,8 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A496">
+        <v>2021</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -25520,10 +24530,8 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A497">
+        <v>2021</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -25571,10 +24579,8 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A498">
+        <v>2021</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -25622,10 +24628,8 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A499">
+        <v>2021</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -25673,10 +24677,8 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A500">
+        <v>2021</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -25724,10 +24726,8 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A501">
+        <v>2021</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -25775,10 +24775,8 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A502">
+        <v>2020</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -25826,10 +24824,8 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A503">
+        <v>2020</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -25877,10 +24873,8 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A504">
+        <v>2020</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -25928,10 +24922,8 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A505">
+        <v>2020</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -25979,10 +24971,8 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A506">
+        <v>2020</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -26030,10 +25020,8 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A507">
+        <v>2020</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -26081,10 +25069,8 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A508">
+        <v>2020</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -26132,10 +25118,8 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A509">
+        <v>2020</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -26183,10 +25167,8 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A510">
+        <v>2020</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -26234,10 +25216,8 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A511">
+        <v>2020</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -26285,10 +25265,8 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A512">
+        <v>2020</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -26336,10 +25314,8 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A513">
+        <v>2020</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -26387,10 +25363,8 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A514">
+        <v>2020</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -26438,10 +25412,8 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A515">
+        <v>2020</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -26489,10 +25461,8 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A516">
+        <v>2020</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -26540,10 +25510,8 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A517">
+        <v>2020</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -26591,10 +25559,8 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A518">
+        <v>2020</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -26642,10 +25608,8 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A519">
+        <v>2020</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -26693,10 +25657,8 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A520">
+        <v>2020</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -26744,10 +25706,8 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A521">
+        <v>2020</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -26795,10 +25755,8 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A522">
+        <v>2020</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -26846,10 +25804,8 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A523">
+        <v>2020</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -26897,10 +25853,8 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A524">
+        <v>2020</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -26948,10 +25902,8 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A525">
+        <v>2020</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -26999,10 +25951,8 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A526">
+        <v>2020</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -27050,10 +26000,8 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A527">
+        <v>2020</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -27101,10 +26049,8 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A528">
+        <v>2020</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -27152,10 +26098,8 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A529">
+        <v>2020</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -27203,10 +26147,8 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A530">
+        <v>2020</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -27254,10 +26196,8 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A531">
+        <v>2020</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -27305,10 +26245,8 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A532">
+        <v>2020</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -27356,10 +26294,8 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A533">
+        <v>2020</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -27407,10 +26343,8 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A534">
+        <v>2019</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -27458,10 +26392,8 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A535">
+        <v>2019</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -27509,10 +26441,8 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A536">
+        <v>2019</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -27560,10 +26490,8 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A537">
+        <v>2019</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -27611,10 +26539,8 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A538">
+        <v>2019</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -27662,10 +26588,8 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A539">
+        <v>2019</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -27713,10 +26637,8 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A540">
+        <v>2019</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -27764,10 +26686,8 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A541">
+        <v>2019</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -27815,10 +26735,8 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A542">
+        <v>2019</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -27866,10 +26784,8 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A543">
+        <v>2019</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -27917,10 +26833,8 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A544">
+        <v>2019</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -27968,10 +26882,8 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A545">
+        <v>2019</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -28019,10 +26931,8 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A546">
+        <v>2019</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -28070,10 +26980,8 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A547">
+        <v>2019</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -28121,10 +27029,8 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A548">
+        <v>2019</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -28172,10 +27078,8 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A549">
+        <v>2019</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -28223,10 +27127,8 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A550">
+        <v>2019</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -28274,10 +27176,8 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A551">
+        <v>2019</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -28325,10 +27225,8 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A552">
+        <v>2019</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -28376,10 +27274,8 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A553">
+        <v>2019</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -28427,10 +27323,8 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A554">
+        <v>2019</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -28478,10 +27372,8 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A555">
+        <v>2019</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -28529,10 +27421,8 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A556">
+        <v>2019</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -28580,10 +27470,8 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A557">
+        <v>2019</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -28631,10 +27519,8 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A558">
+        <v>2019</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -28682,10 +27568,8 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A559">
+        <v>2019</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -28733,10 +27617,8 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A560">
+        <v>2019</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -28784,10 +27666,8 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A561">
+        <v>2019</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -28835,10 +27715,8 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A562">
+        <v>2019</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -28886,10 +27764,8 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A563">
+        <v>2019</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -28937,10 +27813,8 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A564">
+        <v>2018</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -28988,10 +27862,8 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A565">
+        <v>2018</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -29039,10 +27911,8 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A566">
+        <v>2018</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -29090,10 +27960,8 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A567">
+        <v>2018</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -29141,10 +28009,8 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A568">
+        <v>2018</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -29192,10 +28058,8 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A569">
+        <v>2018</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -29243,10 +28107,8 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A570">
+        <v>2018</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -29294,10 +28156,8 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A571">
+        <v>2018</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -29345,10 +28205,8 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A572">
+        <v>2018</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -29396,10 +28254,8 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A573">
+        <v>2018</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -29447,10 +28303,8 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A574">
+        <v>2018</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -29498,10 +28352,8 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A575">
+        <v>2018</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -29549,10 +28401,8 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A576">
+        <v>2015</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
